--- a/Investment/THS/大决策app/玩股成金/全部机器人数据.xlsx
+++ b/Investment/THS/大决策app/玩股成金/全部机器人数据.xlsx
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33230</v>
+        <v>32687</v>
       </c>
       <c r="E2" t="n">
         <v>100000</v>
@@ -596,17 +596,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="L2" t="n">
-        <v>96113</v>
+        <v>97622</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>33150</v>
+        <v>30840</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>96033</v>
+        <v>95775</v>
       </c>
     </row>
     <row r="3">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4300003</v>
+        <v>-0.89</v>
       </c>
       <c r="L3" t="n">
-        <v>166531</v>
+        <v>165105</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>160108</v>
+        <v>158682</v>
       </c>
     </row>
     <row r="4">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67108</v>
+        <v>8698</v>
       </c>
       <c r="E4" t="n">
         <v>100000</v>
@@ -778,17 +778,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.4499999</v>
+        <v>0.48000002</v>
       </c>
       <c r="L4" t="n">
-        <v>144672</v>
+        <v>145326</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>47976.39</v>
+        <v>0</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>125540.39</v>
+        <v>136628</v>
       </c>
     </row>
     <row r="5">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.98</v>
+        <v>0.38</v>
       </c>
       <c r="L5" t="n">
-        <v>122315</v>
+        <v>122777</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>122260</v>
+        <v>122722</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4570</v>
+        <v>60756</v>
       </c>
       <c r="E6" t="n">
         <v>100000</v>
@@ -960,17 +960,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="L6" t="n">
-        <v>191799</v>
+        <v>193690</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>56186</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>187229</v>
+        <v>189120</v>
       </c>
     </row>
   </sheetData>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31972777-0803-4221-be12-efde584c3cbb</t>
+          <t>3a47f427-51a8-4f8c-be74-17cf79f04f9f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sz002987</t>
+          <t>sz300953</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1193,63 +1193,63 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.36</v>
+        <v>99.95</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.99</v>
+        <v>104.37</v>
       </c>
       <c r="I2" t="n">
-        <v>22.06</v>
+        <v>101.88</v>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33150</v>
+        <v>30840</v>
       </c>
       <c r="M2" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>21.99</v>
+        <v>104.37</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>22.36</v>
+        <v>103.68</v>
       </c>
       <c r="R2" t="n">
-        <v>33540</v>
+        <v>29985</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>33090</v>
+        <v>30564</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>33090</v>
+        <v>30563.998</v>
       </c>
       <c r="Y2" t="n">
-        <v>-390</v>
+        <v>855.002</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1277,66 +1277,66 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3a47f427-51a8-4f8c-be74-17cf79f04f9f</t>
+          <t>549be074-8cdd-4b0d-80cc-73be358c7790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sz300953</t>
+          <t>sz300584</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F3" t="n">
-        <v>99.95</v>
+        <v>34.87</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>101.88</v>
+        <v>36.39</v>
       </c>
       <c r="I3" t="n">
-        <v>103.68</v>
+        <v>35.28</v>
       </c>
       <c r="J3" t="n">
-        <v>-540</v>
+        <v>1368</v>
       </c>
       <c r="K3" t="n">
-        <v>579</v>
+        <v>1368</v>
       </c>
       <c r="L3" t="n">
-        <v>30564</v>
+        <v>32751</v>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N3" t="n">
-        <v>101.88</v>
+        <v>36.39</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>103.68</v>
+        <v>36.39</v>
       </c>
       <c r="R3" t="n">
-        <v>29985</v>
+        <v>31383</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="T3" t="n">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>31104</v>
+        <v>31383</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -1354,11 +1354,11 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>31104</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>579</v>
+        <v>1368</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1393,25 +1393,25 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="I4" t="n">
         <v>11.97</v>
       </c>
-      <c r="I4" t="n">
-        <v>11.72</v>
-      </c>
       <c r="J4" t="n">
-        <v>675</v>
+        <v>-135</v>
       </c>
       <c r="K4" t="n">
-        <v>864</v>
+        <v>729</v>
       </c>
       <c r="L4" t="n">
-        <v>32319</v>
+        <v>32184</v>
       </c>
       <c r="M4" t="n">
         <v>2700</v>
       </c>
       <c r="N4" t="n">
-        <v>11.97</v>
+        <v>11.92</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>31644</v>
+        <v>32319</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -1449,11 +1449,11 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>31644.002</v>
+        <v>32319.002</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>864</v>
+        <v>729</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1488,25 +1488,25 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>289.37</v>
+      </c>
+      <c r="I5" t="n">
         <v>292.58</v>
       </c>
-      <c r="I5" t="n">
-        <v>282.99</v>
-      </c>
       <c r="J5" t="n">
-        <v>1918</v>
+        <v>-642</v>
       </c>
       <c r="K5" t="n">
-        <v>2516</v>
+        <v>1874</v>
       </c>
       <c r="L5" t="n">
-        <v>58516</v>
+        <v>57874</v>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>292.58</v>
+        <v>289.37</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>56598</v>
+        <v>58516</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -1544,11 +1544,11 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>56597.996</v>
+        <v>58515.996</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>2516</v>
+        <v>1874</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1583,25 +1583,25 @@
         </is>
       </c>
       <c r="H6" t="n">
+        <v>101.84</v>
+      </c>
+      <c r="I6" t="n">
         <v>103</v>
       </c>
-      <c r="I6" t="n">
-        <v>95.09999999999999</v>
-      </c>
       <c r="J6" t="n">
-        <v>4740</v>
+        <v>-696</v>
       </c>
       <c r="K6" t="n">
-        <v>5400</v>
+        <v>4704</v>
       </c>
       <c r="L6" t="n">
-        <v>61800</v>
+        <v>61104</v>
       </c>
       <c r="M6" t="n">
         <v>600</v>
       </c>
       <c r="N6" t="n">
-        <v>103</v>
+        <v>101.84</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>57060</v>
+        <v>61800</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>57060</v>
+        <v>61800</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>5400</v>
+        <v>4704</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>198.52</v>
+      </c>
+      <c r="I7" t="n">
         <v>198.96</v>
       </c>
-      <c r="I7" t="n">
-        <v>198.15</v>
-      </c>
       <c r="J7" t="n">
-        <v>126</v>
+        <v>-88</v>
       </c>
       <c r="K7" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="L7" t="n">
-        <v>39792</v>
+        <v>39704</v>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>198.96</v>
+        <v>198.52</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>39666</v>
+        <v>39792</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1734,11 +1734,11 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>39792</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1773,25 +1773,25 @@
         </is>
       </c>
       <c r="H8" t="n">
+        <v>289.37</v>
+      </c>
+      <c r="I8" t="n">
         <v>292.58</v>
       </c>
-      <c r="I8" t="n">
-        <v>282.99</v>
-      </c>
       <c r="J8" t="n">
-        <v>959</v>
+        <v>-321</v>
       </c>
       <c r="K8" t="n">
-        <v>1258</v>
+        <v>937</v>
       </c>
       <c r="L8" t="n">
-        <v>29258</v>
+        <v>28937</v>
       </c>
       <c r="M8" t="n">
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>292.58</v>
+        <v>289.37</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>28299</v>
+        <v>29258</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1829,11 +1829,11 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>28298.998</v>
+        <v>29257.998</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>1258</v>
+        <v>937</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1847,66 +1847,66 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c464705e-6ffa-4776-bfa0-5d6682b1dad7</t>
+          <t>96d6bc49-be49-4ab0-b169-8d3d6827ef59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sh600028</t>
+          <t>sh603986</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>8300</v>
+        <v>500</v>
       </c>
       <c r="F9" t="n">
-        <v>5.7</v>
+        <v>116.82</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.82</v>
+        <v>117.11</v>
       </c>
       <c r="I9" t="n">
-        <v>5.73</v>
+        <v>117.16</v>
       </c>
       <c r="J9" t="n">
-        <v>747</v>
+        <v>145</v>
       </c>
       <c r="K9" t="n">
-        <v>996</v>
+        <v>145</v>
       </c>
       <c r="L9" t="n">
-        <v>48306</v>
+        <v>58555</v>
       </c>
       <c r="M9" t="n">
-        <v>8300</v>
+        <v>500</v>
       </c>
       <c r="N9" t="n">
-        <v>5.82</v>
+        <v>117.11</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>5.82</v>
+        <v>117.11</v>
       </c>
       <c r="R9" t="n">
-        <v>47310</v>
+        <v>58410</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="T9" t="n">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>47559</v>
+        <v>58410</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1924,11 +1924,11 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>47559</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>996</v>
+        <v>145</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1942,76 +1942,76 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>d86e9722-8b81-46b5-afcf-3f3470a8f0fb</t>
+          <t>c464705e-6ffa-4776-bfa0-5d6682b1dad7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sh600050</t>
+          <t>sh600028</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="F10" t="n">
-        <v>5.28</v>
+        <v>5.7</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.45</v>
+        <v>5.92</v>
       </c>
       <c r="I10" t="n">
-        <v>5.38</v>
+        <v>5.82</v>
       </c>
       <c r="J10" t="n">
-        <v>89.01000000000001</v>
+        <v>830</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1826</v>
       </c>
       <c r="L10" t="n">
-        <v>47976.39</v>
+        <v>49136</v>
       </c>
       <c r="M10" t="n">
-        <v>8901</v>
+        <v>8300</v>
       </c>
       <c r="N10" t="n">
-        <v>5.45</v>
+        <v>5.92</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>5.44</v>
+        <v>5.92</v>
       </c>
       <c r="R10" t="n">
-        <v>46992</v>
+        <v>47310</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>8901</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>47887.38</v>
+        <v>48306</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -2019,13 +2019,11 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>47887.383</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>979.107</v>
-      </c>
+        <v>48306</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1826</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2116,7 +2114,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>41480</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
@@ -2158,10 +2156,10 @@
         <v>0.35</v>
       </c>
       <c r="I12" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J12" t="n">
-        <v>1186</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1186</v>
@@ -2203,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>40324</v>
+        <v>41510</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2211,7 +2209,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>40324</v>
+        <v>41510</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
@@ -2250,25 +2248,25 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I13" t="n">
         <v>0.85</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="K13" t="n">
-        <v>462</v>
+        <v>924</v>
       </c>
       <c r="L13" t="n">
-        <v>39270</v>
+        <v>39732</v>
       </c>
       <c r="M13" t="n">
         <v>46200</v>
       </c>
       <c r="N13" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2281,7 +2279,7 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="R13" t="n">
         <v>38808</v>
@@ -2310,7 +2308,7 @@
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>462</v>
+        <v>924</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2345,25 +2343,25 @@
         </is>
       </c>
       <c r="H14" t="n">
+        <v>101.84</v>
+      </c>
+      <c r="I14" t="n">
         <v>103</v>
       </c>
-      <c r="I14" t="n">
-        <v>95.09999999999999</v>
-      </c>
       <c r="J14" t="n">
-        <v>4740</v>
+        <v>-696</v>
       </c>
       <c r="K14" t="n">
-        <v>5400</v>
+        <v>4704</v>
       </c>
       <c r="L14" t="n">
-        <v>61800</v>
+        <v>61104</v>
       </c>
       <c r="M14" t="n">
         <v>600</v>
       </c>
       <c r="N14" t="n">
-        <v>103</v>
+        <v>101.84</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2393,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>57060</v>
+        <v>61800</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2401,11 +2399,11 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>57060</v>
+        <v>61800</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>5400</v>
+        <v>4704</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2429,7 +2427,7 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>43.66</v>
@@ -2440,25 +2438,25 @@
         </is>
       </c>
       <c r="H15" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="I15" t="n">
         <v>43.21</v>
       </c>
-      <c r="I15" t="n">
-        <v>44.25</v>
-      </c>
       <c r="J15" t="n">
-        <v>-1352</v>
+        <v>13</v>
       </c>
       <c r="K15" t="n">
-        <v>-585</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>56173</v>
+        <v>56186</v>
       </c>
       <c r="M15" t="n">
         <v>1300</v>
       </c>
       <c r="N15" t="n">
-        <v>43.21</v>
+        <v>43.73</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -2467,7 +2465,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2478,17 +2476,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>57525</v>
+        <v>56173</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -2496,11 +2494,13 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>57525</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
+        <v>56173</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-571.998</v>
+      </c>
       <c r="Z15" t="n">
-        <v>-585</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2535,25 +2535,25 @@
         </is>
       </c>
       <c r="H16" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="I16" t="n">
         <v>62.96</v>
       </c>
-      <c r="I16" t="n">
-        <v>61.12</v>
-      </c>
       <c r="J16" t="n">
-        <v>2024</v>
+        <v>2574</v>
       </c>
       <c r="K16" t="n">
-        <v>5951</v>
+        <v>8525</v>
       </c>
       <c r="L16" t="n">
-        <v>69256</v>
+        <v>71830</v>
       </c>
       <c r="M16" t="n">
         <v>1100</v>
       </c>
       <c r="N16" t="n">
-        <v>62.96</v>
+        <v>65.3</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>62.96</v>
+        <v>65.3</v>
       </c>
       <c r="R16" t="n">
         <v>63305</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>67232</v>
+        <v>69256</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -2591,11 +2591,11 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>67232</v>
+        <v>69256</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>5951</v>
+        <v>8525</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
